--- a/medicine/Sexualité et sexologie/Shame_(film,_2011)/Shame_(film,_2011).xlsx
+++ b/medicine/Sexualité et sexologie/Shame_(film,_2011)/Shame_(film,_2011).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shame (ou La Honte au Québec) est un film britannique de Steve McQueen sorti le 2 décembre 2011.
 Brandon (Michael Fassbender) est un trentenaire new-yorkais travaillant beaucoup, qui ne conçoit pas la vie de couple. Son quotidien est dévoré par une obsession : le sexe. Quand sa sœur Sissy (Carey Mulligan), chanteuse un peu perdue, arrive sans prévenir à New York et s'installe dans son appartement, Brandon a de plus en plus de mal à conserver son mode de vie et à l'assumer.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brandon, séduisant trentenaire, est un célibataire qui travaille beaucoup. Mais sa vie ne se résume pas qu'à la routine quotidienne, elle est aussi envahie par une obsession pour le sexe. Il est sans cesse en besoin de sexe, au-delà du plaisir, car c'est pour lui quelque chose d'irrépressible.
 Ainsi, Brandon cumule les relations d'un soir, fait appel à des prostituées, se masturbe sous la douche comme au travail, s'abreuve de films X dès qu'il peut. Son comportement n'est pourtant pas excentrique ou extraverti, contrairement à son supérieur et ami David, ouvertement dragueur et lourd, et ayant pourtant une vie de famille.
@@ -555,7 +569,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Shame
 Titre français : Shame
@@ -581,7 +597,7 @@
  Belgique : 11 janvier 2012
  Royaume-Uni : 13 janvier 2012
  Australie : 9 février 2012
-Film interdit aux moins de 12 ans lors de sa sortie en salles en France, puis réévalué en déconseillé aux moins de 16 ans lors de sa diffusion télévisée[1].
+Film interdit aux moins de 12 ans lors de sa sortie en salles en France, puis réévalué en déconseillé aux moins de 16 ans lors de sa diffusion télévisée.
 Film classé 16 ans et plus au Québec et NC-17 (17 et plus) aux États-Unis.</t>
         </is>
       </c>
@@ -610,7 +626,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Michael Fassbender (VF : Christian Gonon) : Brandon
 Carey Mulligan (VF : Élisabeth Ventura) : Sissy
@@ -650,7 +668,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On retrouve, en plus de la musique originale composée par Harry Escott, de nombreux morceaux dans le film. Bach interprété par Glenn Gould revient plusieurs fois, dans des moments importants du film.
 L'Aria et la Variation 15 (Canone alla Quinta in moto contrario a 1 clav) des Variations Goldberg de J. S. Bach par Glenn Gould
@@ -695,8 +715,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Coupe Volpi pour la meilleure interprétation masculine 2011 pour Michael Fassbender
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Coupe Volpi pour la meilleure interprétation masculine 2011 pour Michael Fassbender
 British Independent Film Awards 2011 : meilleur acteur pour Michael Fassbender
 Detroit Film Critics Society Awards 2012 : meilleur acteur pour Michael Fassbender
 Florida Film Critics Circle Awards 2012 : meilleur acteur pour Michael Fassbender
@@ -706,11 +731,7 @@
 Vancouver Film Critics Circle Awards 2012 : meilleur acteur pour Michael Fassbender
 Prix du cinéma européen 2012 : directeur de la photo européen de l'année pour Sean Bobbitt
 Prix du cinéma européen 2012 : meilleur montage européen de l'année pour Joe Walker
-Evening Standard British Film Awards 2012 : meilleur acteur pour Michael Fassbender
-Nominations
-Mostra de Venise 2011 : en compétition pour le Lion d’Or
-Golden Globes 2012 : meilleur acteur pour Michael Fassbender
-2013 : grand prix de l'Union de la critique de cinéma</t>
+Evening Standard British Film Awards 2012 : meilleur acteur pour Michael Fassbender</t>
         </is>
       </c>
     </row>
@@ -735,10 +756,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mostra de Venise 2011 : en compétition pour le Lion d’Or
+Golden Globes 2012 : meilleur acteur pour Michael Fassbender
+2013 : grand prix de l'Union de la critique de cinéma</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -761,10 +794,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Analyse</t>
+          <t>Box-office</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -787,13 +822,43 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Shame_(film,_2011)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shame_(film,_2011)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shame reçoit en majorité des critiques positives. L'agrégateur Rotten Tomatoes rapporte que 71 % des 103 critiques ont donné un avis positif sur le film, avec une bonne moyenne de 7,3/10[2]. L'agrégateur Metacritic donne une note de 55 sur 100 indiquant des « critiques positives »[3].
-En France, le film obtient une note de 4 étoiles (sur une échelle de 5) sur 28 critiques recensées par AlloCiné[4]. Ainsi, Le Monde y voit « une tragédie et une représentation stupéfiante de beauté de la vie misérable d'un privilégié, perdu dans la capitale du monde moderne, New York »[5] quand L'Express décrit « un film hypnotique, aimable et dérangeant à la fois, déstabilisant et fascinant, qui use des images, du récit, de l'imaginaire, donc de cet obscur objet de désir qu'est le cinéma, pour s'affirmer comme une grande œuvre »[6]. Le Figaro n’est pas en reste, célébrant un « film sombre et vertigineux »[7]. Pour Le Parisien en revanche, « Shame pâtit d'un scénario autosatisfait qui vise dans les coins sans jamais rien explorer[8]. »
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shame reçoit en majorité des critiques positives. L'agrégateur Rotten Tomatoes rapporte que 71 % des 103 critiques ont donné un avis positif sur le film, avec une bonne moyenne de 7,3/10. L'agrégateur Metacritic donne une note de 55 sur 100 indiquant des « critiques positives ».
+En France, le film obtient une note de 4 étoiles (sur une échelle de 5) sur 28 critiques recensées par AlloCiné. Ainsi, Le Monde y voit « une tragédie et une représentation stupéfiante de beauté de la vie misérable d'un privilégié, perdu dans la capitale du monde moderne, New York » quand L'Express décrit « un film hypnotique, aimable et dérangeant à la fois, déstabilisant et fascinant, qui use des images, du récit, de l'imaginaire, donc de cet obscur objet de désir qu'est le cinéma, pour s'affirmer comme une grande œuvre ». Le Figaro n’est pas en reste, célébrant un « film sombre et vertigineux ». Pour Le Parisien en revanche, « Shame pâtit d'un scénario autosatisfait qui vise dans les coins sans jamais rien explorer. »
 </t>
         </is>
       </c>
